--- a/biology/Microbiologie/Ophryoscolecidae/Ophryoscolecidae.xlsx
+++ b/biology/Microbiologie/Ophryoscolecidae/Ophryoscolecidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Ophryoscolecidae sont une famille de Ciliés de la classe des Litostomatea et de l'ordre des Entodiniomorphida.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de la famille vient du genre type Ophryoscolex, dérivé du grec ancien οφρύς / ophrýs, « sourcil ⇒ cil ⇒ cilié », et de scolex (du grec ancien σκώληξ / skólèx, « ver, larve »).
 </t>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Ophryoscolecidae ont une taille, petite (&lt; 80 μm) à grande (&gt; 200 μm). Leur forme varie d’ovoïde à fusiforme, plus ou moins aplatie. Ils nagent librement dans le milieu liquide. Ils comportent des touffes ciliaire dorsales rétractables pouvant couvrir au moins 1/3 du périmètre corporel (celles-ci sont absentes chez le genre Entodinium). Des plaques squelettiques sont couramment présentes. 
-Leur macronoyau est généralement allongé. On note la présence d’un micronoyau et de vacuoles contractiles en nombre variable. Un cytoprocte (anus) est présent. Ils se nourrissent de bactéries, de détritus végétaux et d'autres ciliés[1].
+Leur macronoyau est généralement allongé. On note la présence d’un micronoyau et de vacuoles contractiles en nombre variable. Un cytoprocte (anus) est présent. Ils se nourrissent de bactéries, de détritus végétaux et d'autres ciliés.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Ophryoscolecidae vivent dans des habitats terrestres, mais sont aussi endocommensaux dans le rumen des ruminants tels que les bovins, les ovins, les caprins, les cerfs, les antilopes, les caribous, les bisons, les buffles et les chameaux, ainsi que dans l'intestin du cobaye[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Ophryoscolecidae vivent dans des habitats terrestres, mais sont aussi endocommensaux dans le rumen des ruminants tels que les bovins, les ovins, les caprins, les cerfs, les antilopes, les caribous, les bisons, les buffles et les chameaux, ainsi que dans l'intestin du cobaye.
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (14 juin 2023)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (14 juin 2023) :
 Anoplodinium Dogiel, 1927
 Diploplastron Kofoid &amp; MacLennan, 1932
 Enoploplastron Kofoid &amp; MacLennan, 1932
@@ -618,7 +638,7 @@
 Eudiplodinium Dogiel, 1927
 Ophryoscolex Stein, 1859
 Polyplastron Dogiel, 1927
-Selon Lynn (2008)[1] :
+Selon Lynn (2008) :
 Anoplodinium Dogiel, 1927
 Caloscolex Dogiel, 1926
 Campylodinium Jankowski, 1975
@@ -666,9 +686,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide de ce taxon est Ophryoscolecidae Stein, 1859[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide de ce taxon est Ophryoscolecidae Stein, 1859.
 </t>
         </is>
       </c>
